--- a/Android-KotlinCheatSheet.xlsx
+++ b/Android-KotlinCheatSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C20D2B-7F22-4993-B72E-0737EFAB3B54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7B438-B8FB-4970-8EFD-9A270B09BCB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00DFE8BB-CD99-4211-B144-7BC86B5FED93}"/>
+    <workbookView xWindow="792" yWindow="6780" windowWidth="12960" windowHeight="6840" xr2:uid="{00DFE8BB-CD99-4211-B144-7BC86B5FED93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,16 +40,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -62,6 +52,332 @@
 var j:Integer=0
 //Make nullable
 var k:Integer?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{9CAB22C4-FB44-4209-80A0-7126B9DEF05F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//A good convention is to declare a TAG constant in your class:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+private static final String LOG_TAG = MainActivity.class.getSimpleName();
+Log.v(LOG_TAG , "index=" + i);
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//Severity low to high
+//Verbose
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Log.v(LOG_TAG , "index=" + i);</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Debug</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Log.d(LOG_TAG , "index=" + i);
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Info</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Log.i(LOG_TAG , "index=" + i);
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Warn</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Log.d(LOG_TAG , "index=" + i);
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//Error
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Log.e(LOG_TAG , "index=" + i);
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//WTF (What a Terrible Failure) - Should never happen</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Log.wtf(LOG_TAG , "index=" + i);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B28D034E-D7F8-499B-8869-5CAECFF7D5EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ctrl + Alt + L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B815DCBC-A28B-47C5-903E-F50B8E5D890D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+val randomInt = Random().nextInt(6) + 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{EC0D3D7E-BC72-4966-B0D7-17E2A0A45FCA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+resultText.text = randomInt.toString()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{05187D9F-570E-473C-A1FB-6196BA873654}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Code behind</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+    val countUpButton: Button = findViewById(R.id.count_up)
+    countUpButton.setOnClickListener {countUp()}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//XML
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &lt;Button
+        android:id="@+id/count_up" /&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{E9606C5B-6B1F-4919-9E31-BF610C58652B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+var resultInt = resultText.text.toString().toInt()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//OR
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>var resultInt = Integer.parseInt(result_text.text.toString())</t>
         </r>
       </text>
     </comment>
@@ -70,16 +386,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Initalize variable</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Reformat key command / shortcut</t>
+  </si>
+  <si>
+    <t>Random Int</t>
+  </si>
+  <si>
+    <t>Int to string / toString / convert</t>
+  </si>
+  <si>
+    <t>button click event</t>
+  </si>
+  <si>
+    <t>Convert to int / cast / toInt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,7 +432,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,15 +777,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A32ADE-950D-416F-B6C7-EDA57A4E3092}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -453,8 +793,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Android-KotlinCheatSheet.xlsx
+++ b/Android-KotlinCheatSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7B438-B8FB-4970-8EFD-9A270B09BCB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E4895-EAA5-4748-AD76-6A60EFB98E40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="6780" windowWidth="12960" windowHeight="6840" xr2:uid="{00DFE8BB-CD99-4211-B144-7BC86B5FED93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00DFE8BB-CD99-4211-B144-7BC86B5FED93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,9 @@
 //Cannot be null
 var j:Integer=0
 //Make nullable
-var k:Integer?</t>
+var k:Integer?
+//Declare view
+lateinit var diceImage : ImageView</t>
         </r>
       </text>
     </comment>
@@ -261,6 +263,27 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+val randomInt = (1..6).random()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//OR</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 val randomInt = Random().nextInt(6) + 1</t>
         </r>
       </text>
@@ -291,6 +314,49 @@
     </comment>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{05187D9F-570E-473C-A1FB-6196BA873654}">
       <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Best</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+        binding.doneButton.setOnClickListener {
+            addNickname(it)
+        }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//OR</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -342,7 +408,30 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> &lt;Button
-        android:id="@+id/count_up" /&gt;</t>
+        android:id="@+id/count_up" /&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//OR
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        findViewById&lt;Button&gt;(R.id.done_button).setOnClickListener{
+            addNickname(it)
+        }</t>
         </r>
       </text>
     </comment>
@@ -378,6 +467,409 @@
             <family val="2"/>
           </rPr>
           <t>var resultInt = Integer.parseInt(result_text.text.toString())</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{81654DDF-A446-4174-B5A9-B86816657A57}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt;ImageView
+    android:id="@+id/dice_image"
+    android:layout_width="wrap_content"
+    android:layout_height="wrap_content"
+    android:layout_gravity="center_horizontal"
+    android:src="@drawable/dice_1" /&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{1F88F81E-F54E-45DC-BE9C-BEB5A4E7ECEB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    &lt;Button
+        android:id="@+id/count_up"
+        android:layout_width="wrap_content"
+        android:layout_height="wrap_content"
+        android:layout_gravity="center_horizontal"
+        android:text="@string/count_up" /&gt;
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{080AA2CB-EF8E-4BDC-ABAC-8C92233A967C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+val drawableResource = when (randomInt) {
+        1 -&gt; R.drawable.dice_1
+        2 -&gt; R.drawable.dice_2
+        3 -&gt; R.drawable.dice_3
+        4 -&gt; R.drawable.dice_4
+        5 -&gt; R.drawable.dice_5
+        else -&gt; R.drawable.dice_6
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{0E9876FD-EB82-41FB-9703-62ACE9E11C22}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Declare view</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    lateinit var diceImage : ImageView
+    override fun onCreate(savedInstanceState: Bundle?) {
+        super.onCreate(savedInstanceState)
+        setContentView(R.layout.activity_main)
+        diceImage = findViewById(R.id.dice_image)
+    }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Assign image</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    val drawableResource =  R.drawable.dice_1
+    diceImage.setImageResource(drawableResource)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{233F46CD-DE32-4B98-ADCC-F6941597611F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt;LinearLayout xmlns:android="http://schemas.android.com/apk/res/android"
+    xmlns:app="http://schemas.android.com/apk/res-auto"
+    xmlns:tools="http://schemas.android.com/tools"
+    android:layout_width="match_parent"
+    android:layout_height="match_parent"
+    android:orientation="vertical"
+    tools:context=".MainActivity"&gt;
+&lt;/LinearLayout&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{8A8B6B04-E88A-4347-83D6-43EBDF615E93}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+        val inputMethodManager = getSystemService(Context.INPUT_METHOD_SERVICE) as InputMethodManager
+        inputMethodManager.hideSoftInputFromWindow(view.windowToken, 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{52E7A63D-28D8-4DC4-8D6B-867C9E5BB1CF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+        val imm = getSystemService(Context.INPUT_METHOD_SERVICE) as InputMethodManager
+        imm.showSoftInput(editText, 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{3CC334BC-2842-43D0-88E0-9DA751B65280}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Declare view</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+    val editText = findViewById&lt;EditText&gt;(R.id.nickname_edit)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Set focus</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+    editText.requestFocus()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Optional show keyboard</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+    val imm = getSystemService(Context.INPUT_METHOD_SERVICE) as InputMethodManager
+    imm.showSoftInput(editText, 0) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{7AB87F0D-A9E4-4BFD-806B-A56620582EA4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+R.id.box_one_text -&gt; view.setBackgroundColor(Color.DKGRAY)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{E073AC0B-542B-46A3-A047-A5CD267BE856}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Items in list</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+        val boxOneText = findViewById&lt;TextView&gt;(R.id.box_one_text)
+        val boxTwoText = findViewById&lt;TextView&gt;(R.id.box_two_text)
+        val boxThreeText = findViewById&lt;TextView&gt;(R.id.box_three_text)
+        val boxFourText = findViewById&lt;TextView&gt;(R.id.box_four_text)
+        val boxFiveText = findViewById&lt;TextView&gt;(R.id.box_five_text)
+        val rootConstraintLayout = findViewById&lt;View&gt;(R.id.constraint_layout)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Declaration of list</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+        val clickableViews: List&lt;View&gt; =
+            listOf(boxOneText, boxTwoText, boxThreeText,
+                boxFourText, boxFiveText, rootConstraintLayout)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{FFFEE5EF-0F26-41CB-8E90-6949DD176072}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+        for (item in clickableViews) {
+            item.setOnClickListener { makeColored(it) }
+        }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{34E3406B-D2F5-434D-9FC9-2C825F1FDA17}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//In build.gradle (module:app)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+android {
+    dataBinding {
+        enabled = true
+    }
+}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{DE26D01C-5342-42D7-B8B4-89035AF7D328}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ Toast.makeText(getApplicationContext(),"Hello World!",Toast.LENGTH_SHORT).show(); </t>
         </r>
       </text>
     </comment>
@@ -386,7 +878,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Initalize variable</t>
   </si>
@@ -407,6 +899,45 @@
   </si>
   <si>
     <t>Convert to int / cast / toInt</t>
+  </si>
+  <si>
+    <t>XML Button</t>
+  </si>
+  <si>
+    <t>XML ImageView</t>
+  </si>
+  <si>
+    <t>Switch case / when</t>
+  </si>
+  <si>
+    <t>Assigning image to ImageView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear layout </t>
+  </si>
+  <si>
+    <t>Hide keyboard</t>
+  </si>
+  <si>
+    <t>Show keyboard</t>
+  </si>
+  <si>
+    <t>set focus</t>
+  </si>
+  <si>
+    <t>Set background colour</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>For loop</t>
+  </si>
+  <si>
+    <t>Enable databinding</t>
+  </si>
+  <si>
+    <t>Show Toast</t>
   </si>
 </sst>
 </file>
@@ -777,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A32ADE-950D-416F-B6C7-EDA57A4E3092}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,6 +1354,71 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
